--- a/Datasets/10332_alt_fueling_stations_fuel.xlsx
+++ b/Datasets/10332_alt_fueling_stations_fuel.xlsx
@@ -1,33 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hpawlows/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jae/Desktop/Team9/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DD67F8-D523-F64D-AED1-B3A38F6F6F23}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D6CFF0-9FE0-294F-BEE8-B5680F150A6B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22980" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22980" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alt Fueling Stations by Fuel" sheetId="3" r:id="rId1"/>
     <sheet name="Condensed" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Alt Fueling Stations by Fuel'!$B$2:$J$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Alt Fueling Stations by Fuel'!$A$1:$I$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Condensed!$B$2:$J$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Year</t>
   </si>
@@ -134,7 +128,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -206,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -420,45 +414,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -495,7 +450,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -564,7 +519,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,15 +603,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -784,7 +729,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$J$3</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -796,7 +741,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$B$4:$B$30</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="27"/>
@@ -886,7 +831,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$J$4:$J$30</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$I$2:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="27"/>
@@ -985,7 +930,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$I$3</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -997,7 +942,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$B$4:$B$30</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1087,7 +1032,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$I$4:$I$30</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$H$2:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1186,7 +1131,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$H$3</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1206,7 +1151,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$B$4:$B$30</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1296,7 +1241,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$H$4:$H$30</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1371,7 +1316,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$G$3</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1383,7 +1328,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$B$4:$B$30</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1473,7 +1418,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$G$4:$G$27</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1533,7 +1478,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$F$3</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1550,7 +1495,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$B$4:$B$30</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1640,7 +1585,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$F$4:$F$30</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$E$2:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1727,7 +1672,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$E$3</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1739,7 +1684,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$B$4:$B$30</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1829,7 +1774,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$E$4:$E$30</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1874,7 +1819,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$D$3</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1886,7 +1831,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$B$4:$B$30</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1976,7 +1921,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$D$4:$D$30</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="27"/>
@@ -2075,7 +2020,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$C$3</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2087,7 +2032,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$B$4:$B$30</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="27"/>
@@ -2177,7 +2122,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Alt Fueling Stations by Fuel'!$C$4:$C$30</c:f>
+              <c:f>'Alt Fueling Stations by Fuel'!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="27"/>
@@ -2453,15 +2398,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2923,1127 +2868,1110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L50"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="11" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="10" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:11" s="26" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
-    </row>
-    <row r="3" spans="2:11" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="53" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="13" customHeight="1">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="C1" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="E1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="F1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="G1" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="H1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="I1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="J1" s="54" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:11" s="1" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="27">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="13" customHeight="1">
+      <c r="A2" s="26">
         <v>1992</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6">
+        <v>3297</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6">
+        <v>349</v>
+      </c>
+      <c r="I2" s="6">
+        <v>2</v>
+      </c>
+      <c r="J2" s="11">
+        <f>SUM(B2:I2)</f>
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="13" customHeight="1">
+      <c r="A3" s="26">
+        <v>1993</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6">
+        <v>3297</v>
+      </c>
+      <c r="D3" s="6">
+        <v>50</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6">
+        <v>497</v>
+      </c>
+      <c r="I3" s="6">
+        <v>7</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" ref="J3:J28" si="0">SUM(B3:I3)</f>
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="13" customHeight="1">
+      <c r="A4" s="26">
+        <v>1994</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6">
+        <v>3299</v>
+      </c>
       <c r="D4" s="6">
-        <v>3297</v>
-      </c>
-      <c r="E4" s="6">
-        <v>43</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="6">
+        <v>1042</v>
+      </c>
       <c r="I4" s="6">
-        <v>349</v>
-      </c>
-      <c r="J4" s="6">
-        <v>2</v>
-      </c>
-      <c r="K4" s="11">
-        <f>SUM(C4:J4)</f>
-        <v>3691</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" s="1" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="27">
-        <v>1993</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" si="0"/>
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="13" customHeight="1">
+      <c r="A5" s="26">
+        <v>1995</v>
+      </c>
+      <c r="B5" s="6">
+        <v>188</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3299</v>
+      </c>
       <c r="D5" s="6">
-        <v>3297</v>
-      </c>
-      <c r="E5" s="6">
-        <v>50</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6">
+        <v>1065</v>
+      </c>
       <c r="I5" s="6">
-        <v>497</v>
-      </c>
-      <c r="J5" s="6">
-        <v>7</v>
-      </c>
-      <c r="K5" s="11">
-        <f t="shared" ref="K5:K30" si="0">SUM(C5:J5)</f>
-        <v>3851</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" s="1" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="27">
-        <v>1994</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="0"/>
+        <v>4677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="13" customHeight="1">
+      <c r="A6" s="26">
+        <v>1996</v>
+      </c>
+      <c r="B6" s="6">
+        <v>194</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4252</v>
+      </c>
       <c r="D6" s="6">
-        <v>3299</v>
+        <v>95</v>
       </c>
       <c r="E6" s="6">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6">
+        <v>1419</v>
+      </c>
       <c r="I6" s="6">
-        <v>1042</v>
-      </c>
-      <c r="J6" s="6">
-        <v>32</v>
-      </c>
-      <c r="K6" s="11">
+        <v>68</v>
+      </c>
+      <c r="J6" s="11">
         <f t="shared" si="0"/>
-        <v>4455</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" s="1" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="27">
-        <v>1995</v>
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="13" customHeight="1">
+      <c r="A7" s="26">
+        <v>1997</v>
+      </c>
+      <c r="B7" s="6">
+        <v>310</v>
       </c>
       <c r="C7" s="6">
-        <v>188</v>
+        <v>4255</v>
       </c>
       <c r="D7" s="6">
-        <v>3299</v>
+        <v>106</v>
       </c>
       <c r="E7" s="6">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6">
+        <v>1426</v>
+      </c>
       <c r="I7" s="6">
-        <v>1065</v>
-      </c>
-      <c r="J7" s="6">
-        <v>37</v>
-      </c>
-      <c r="K7" s="11">
-        <f t="shared" si="0"/>
-        <v>4677</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" s="1" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="27">
-        <v>1996</v>
-      </c>
-      <c r="C8" s="6">
-        <v>194</v>
-      </c>
-      <c r="D8" s="6">
-        <v>4252</v>
-      </c>
-      <c r="E8" s="6">
-        <v>95</v>
-      </c>
-      <c r="F8" s="6">
-        <v>72</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6">
-        <v>1419</v>
-      </c>
-      <c r="J8" s="6">
-        <v>68</v>
-      </c>
-      <c r="K8" s="11">
-        <f t="shared" si="0"/>
-        <v>6100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="27">
-        <v>1997</v>
-      </c>
-      <c r="C9" s="6">
-        <v>310</v>
-      </c>
-      <c r="D9" s="6">
-        <v>4255</v>
-      </c>
-      <c r="E9" s="6">
-        <v>106</v>
-      </c>
-      <c r="F9" s="6">
         <v>71</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6">
-        <v>1426</v>
-      </c>
-      <c r="J9" s="6">
-        <v>71</v>
-      </c>
-      <c r="K9" s="11">
+      <c r="J7" s="11">
         <f t="shared" si="0"/>
         <v>6239</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="27">
+    <row r="8" spans="1:10" ht="13" customHeight="1">
+      <c r="A8" s="26">
         <v>1998</v>
       </c>
-      <c r="C10" s="6">
+      <c r="B8" s="6">
         <v>486</v>
       </c>
-      <c r="D10" s="6">
+      <c r="C8" s="6">
         <v>5318</v>
       </c>
-      <c r="E10" s="6">
+      <c r="D8" s="6">
         <v>91</v>
       </c>
-      <c r="F10" s="6">
+      <c r="E8" s="6">
         <v>66</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
         <v>1268</v>
       </c>
-      <c r="J10" s="6">
+      <c r="I8" s="6">
         <v>40</v>
       </c>
-      <c r="K10" s="11">
+      <c r="J8" s="11">
         <f t="shared" si="0"/>
         <v>7269</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="27">
+    <row r="9" spans="1:10" ht="13" customHeight="1">
+      <c r="A9" s="26">
         <v>1999</v>
       </c>
-      <c r="C11" s="6">
+      <c r="B9" s="6">
         <v>490</v>
       </c>
-      <c r="D11" s="6">
+      <c r="C9" s="6">
         <v>4153</v>
       </c>
-      <c r="E11" s="6">
+      <c r="D9" s="6">
         <v>51</v>
       </c>
-      <c r="F11" s="6">
+      <c r="E9" s="6">
         <v>46</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
         <v>1267</v>
       </c>
-      <c r="J11" s="6">
+      <c r="I9" s="6">
         <v>49</v>
       </c>
-      <c r="K11" s="11">
+      <c r="J9" s="11">
         <f t="shared" si="0"/>
         <v>6056</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="27">
+    <row r="10" spans="1:10" ht="13" customHeight="1">
+      <c r="A10" s="26">
         <v>2000</v>
       </c>
-      <c r="C12" s="6">
+      <c r="B10" s="6">
         <v>558</v>
       </c>
-      <c r="D12" s="6">
+      <c r="C10" s="6">
         <v>3268</v>
       </c>
-      <c r="E12" s="6">
+      <c r="D10" s="6">
         <v>3</v>
       </c>
-      <c r="F12" s="6">
+      <c r="E10" s="6">
         <v>44</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
         <v>2</v>
       </c>
-      <c r="I12" s="6">
+      <c r="H10" s="6">
         <v>1217</v>
       </c>
-      <c r="J12" s="6">
+      <c r="I10" s="6">
         <v>113</v>
       </c>
-      <c r="K12" s="11">
+      <c r="J10" s="11">
         <f t="shared" si="0"/>
         <v>5205</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="27">
+    <row r="11" spans="1:10" ht="13" customHeight="1">
+      <c r="A11" s="26">
         <v>2001</v>
       </c>
-      <c r="C13" s="6">
+      <c r="B11" s="6">
         <v>693</v>
       </c>
-      <c r="D13" s="6">
+      <c r="C11" s="6">
         <v>3403</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
         <v>44</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
         <v>16</v>
       </c>
-      <c r="I13" s="6">
+      <c r="H11" s="6">
         <v>1232</v>
       </c>
-      <c r="J13" s="6">
+      <c r="I11" s="6">
         <v>154</v>
       </c>
-      <c r="K13" s="11">
+      <c r="J11" s="11">
         <f t="shared" si="0"/>
         <v>5542</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="27">
+    <row r="12" spans="1:10" ht="13" customHeight="1">
+      <c r="A12" s="26">
         <v>2002</v>
       </c>
-      <c r="C14" s="6">
+      <c r="B12" s="6">
         <v>873</v>
       </c>
-      <c r="D14" s="6">
+      <c r="C12" s="6">
         <v>3431</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
         <v>36</v>
       </c>
-      <c r="G14" s="6">
+      <c r="F12" s="6">
         <v>7</v>
       </c>
-      <c r="H14" s="6">
+      <c r="G12" s="6">
         <v>79</v>
       </c>
-      <c r="I14" s="6">
+      <c r="H12" s="6">
         <v>1166</v>
       </c>
-      <c r="J14" s="6">
+      <c r="I12" s="6">
         <v>149</v>
       </c>
-      <c r="K14" s="11">
+      <c r="J12" s="11">
         <f t="shared" si="0"/>
         <v>5741</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="27">
+    <row r="13" spans="1:10" ht="13" customHeight="1">
+      <c r="A13" s="26">
         <v>2003</v>
       </c>
-      <c r="C15" s="6">
+      <c r="B13" s="6">
         <v>830</v>
       </c>
-      <c r="D15" s="6">
+      <c r="C13" s="6">
         <v>3966</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
         <v>62</v>
       </c>
-      <c r="G15" s="6">
+      <c r="F13" s="6">
         <v>7</v>
       </c>
-      <c r="H15" s="6">
+      <c r="G13" s="6">
         <v>142</v>
       </c>
-      <c r="I15" s="6">
+      <c r="H13" s="6">
         <v>1035</v>
       </c>
-      <c r="J15" s="6">
+      <c r="I13" s="6">
         <v>188</v>
       </c>
-      <c r="K15" s="11">
+      <c r="J13" s="11">
         <f t="shared" si="0"/>
         <v>6230</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="27">
+    <row r="14" spans="1:10" ht="13" customHeight="1">
+      <c r="A14" s="26">
         <v>2004</v>
       </c>
-      <c r="C16" s="6">
+      <c r="B14" s="6">
         <v>671</v>
       </c>
-      <c r="D16" s="6">
+      <c r="C14" s="6">
         <v>3689</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="6">
+      <c r="D14" s="20"/>
+      <c r="E14" s="6">
         <v>58</v>
       </c>
-      <c r="G16" s="6">
+      <c r="F14" s="6">
         <v>9</v>
       </c>
-      <c r="H16" s="6">
+      <c r="G14" s="6">
         <v>176</v>
       </c>
-      <c r="I16" s="6">
+      <c r="H14" s="6">
         <v>917</v>
       </c>
-      <c r="J16" s="6">
+      <c r="I14" s="6">
         <v>200</v>
       </c>
-      <c r="K16" s="11">
+      <c r="J14" s="11">
         <f t="shared" si="0"/>
         <v>5720</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="27">
+    <row r="15" spans="1:10" ht="13" customHeight="1">
+      <c r="A15" s="26">
         <v>2005</v>
       </c>
-      <c r="C17" s="6">
+      <c r="B15" s="6">
         <v>588</v>
       </c>
-      <c r="D17" s="6">
+      <c r="C15" s="6">
         <v>2995</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="6">
+      <c r="D15" s="20"/>
+      <c r="E15" s="6">
         <v>40</v>
       </c>
-      <c r="G17" s="6">
+      <c r="F15" s="6">
         <v>14</v>
       </c>
-      <c r="H17" s="6">
+      <c r="G15" s="6">
         <v>304</v>
       </c>
-      <c r="I17" s="6">
+      <c r="H15" s="6">
         <v>787</v>
       </c>
-      <c r="J17" s="6">
+      <c r="I15" s="6">
         <v>436</v>
       </c>
-      <c r="K17" s="11">
+      <c r="J15" s="11">
         <f t="shared" si="0"/>
         <v>5164</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="27">
+    <row r="16" spans="1:10" ht="13" customHeight="1">
+      <c r="A16" s="26">
         <v>2006</v>
       </c>
-      <c r="C18" s="6">
+      <c r="B16" s="6">
         <v>465</v>
       </c>
-      <c r="D18" s="6">
+      <c r="C16" s="6">
         <v>2619</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
         <v>37</v>
       </c>
-      <c r="G18" s="6">
+      <c r="F16" s="6">
         <v>17</v>
       </c>
-      <c r="H18" s="6">
+      <c r="G16" s="6">
         <v>459</v>
       </c>
-      <c r="I18" s="6">
+      <c r="H16" s="6">
         <v>732</v>
       </c>
-      <c r="J18" s="6">
+      <c r="I16" s="6">
         <v>762</v>
       </c>
-      <c r="K18" s="11">
+      <c r="J16" s="11">
         <f t="shared" si="0"/>
         <v>5091</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="27">
+    <row r="17" spans="1:11" ht="13" customHeight="1">
+      <c r="A17" s="26">
         <v>2007</v>
       </c>
-      <c r="C19" s="21">
+      <c r="B17" s="21">
         <v>442</v>
       </c>
-      <c r="D19" s="21">
+      <c r="C17" s="21">
         <v>2371</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="21">
+      <c r="D17" s="6"/>
+      <c r="E17" s="21">
         <v>35</v>
       </c>
-      <c r="G19" s="21">
+      <c r="F17" s="21">
         <v>32</v>
       </c>
-      <c r="H19" s="21">
+      <c r="G17" s="21">
         <v>742</v>
       </c>
-      <c r="I19" s="21">
+      <c r="H17" s="21">
         <v>721</v>
       </c>
-      <c r="J19" s="21">
+      <c r="I17" s="21">
         <v>1208</v>
       </c>
-      <c r="K19" s="11">
+      <c r="J17" s="11">
         <f t="shared" si="0"/>
         <v>5551</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="27">
+    <row r="18" spans="1:11" ht="13" customHeight="1">
+      <c r="A18" s="26">
         <v>2008</v>
       </c>
-      <c r="C20" s="21">
+      <c r="B18" s="21">
         <v>430</v>
       </c>
-      <c r="D20" s="21">
+      <c r="C18" s="21">
         <v>2175</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="21">
+      <c r="D18" s="6"/>
+      <c r="E18" s="21">
         <v>38</v>
       </c>
-      <c r="G20" s="21">
+      <c r="F18" s="21">
         <v>46</v>
       </c>
-      <c r="H20" s="21">
+      <c r="G18" s="21">
         <v>645</v>
       </c>
-      <c r="I20" s="21">
+      <c r="H18" s="21">
         <v>778</v>
       </c>
-      <c r="J20" s="21">
+      <c r="I18" s="21">
         <v>1644</v>
       </c>
-      <c r="K20" s="11">
+      <c r="J18" s="11">
         <f t="shared" si="0"/>
         <v>5756</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="27">
+    <row r="19" spans="1:11" ht="13" customHeight="1">
+      <c r="A19" s="26">
         <v>2009</v>
       </c>
-      <c r="C21" s="10">
+      <c r="B19" s="10">
         <v>465</v>
       </c>
-      <c r="D21" s="10">
+      <c r="C19" s="10">
         <v>2468</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="10">
+      <c r="D19" s="6"/>
+      <c r="E19" s="10">
         <v>36</v>
       </c>
-      <c r="G21" s="10">
+      <c r="F19" s="10">
         <v>63</v>
       </c>
-      <c r="H21" s="10">
+      <c r="G19" s="10">
         <v>679</v>
       </c>
-      <c r="I21" s="10">
+      <c r="H19" s="10">
         <v>772</v>
       </c>
-      <c r="J21" s="10">
+      <c r="I19" s="10">
         <v>1928</v>
       </c>
-      <c r="K21" s="11">
+      <c r="J19" s="11">
         <f t="shared" si="0"/>
         <v>6411</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="27">
+    <row r="20" spans="1:11" ht="13" customHeight="1">
+      <c r="A20" s="26">
         <v>2010</v>
       </c>
-      <c r="C22" s="22">
+      <c r="B20" s="22">
         <v>541</v>
       </c>
-      <c r="D22" s="22">
+      <c r="C20" s="22">
         <v>2647</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="22">
+      <c r="D20" s="6"/>
+      <c r="E20" s="22">
         <v>39</v>
       </c>
-      <c r="G22" s="22">
+      <c r="F20" s="22">
         <v>58</v>
       </c>
-      <c r="H22" s="22">
+      <c r="G20" s="22">
         <v>644</v>
       </c>
-      <c r="I22" s="22">
+      <c r="H20" s="22">
         <v>841</v>
       </c>
-      <c r="J22" s="22">
+      <c r="I20" s="22">
         <v>2142</v>
       </c>
-      <c r="K22" s="11">
+      <c r="J20" s="11">
         <f t="shared" si="0"/>
         <v>6912</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="27">
+    <row r="21" spans="1:11" ht="13" customHeight="1">
+      <c r="A21" s="26">
         <v>2011</v>
       </c>
-      <c r="C23" s="25">
+      <c r="B21" s="25">
         <v>3394</v>
       </c>
-      <c r="D23" s="25">
+      <c r="C21" s="25">
         <v>2597</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25">
+      <c r="D21" s="24"/>
+      <c r="E21" s="25">
         <v>45</v>
       </c>
-      <c r="G23" s="25">
+      <c r="F21" s="25">
         <v>56</v>
       </c>
-      <c r="H23" s="25">
+      <c r="G21" s="25">
         <v>627</v>
       </c>
-      <c r="I23" s="25">
+      <c r="H21" s="25">
         <v>910</v>
       </c>
-      <c r="J23" s="25">
+      <c r="I21" s="25">
         <v>2442</v>
       </c>
-      <c r="K23" s="11">
+      <c r="J21" s="11">
         <f t="shared" si="0"/>
         <v>10071</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="41">
+    <row r="22" spans="1:11" ht="13" customHeight="1">
+      <c r="A22" s="40">
         <v>2012</v>
       </c>
-      <c r="C24" s="42">
+      <c r="B22" s="41">
         <v>13392</v>
       </c>
-      <c r="D24" s="42">
+      <c r="C22" s="41">
         <v>2654</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="42">
+      <c r="D22" s="42"/>
+      <c r="E22" s="41">
         <v>59</v>
       </c>
-      <c r="G24" s="42">
+      <c r="F22" s="41">
         <v>58</v>
       </c>
-      <c r="H24" s="42">
+      <c r="G22" s="41">
         <v>675</v>
       </c>
-      <c r="I24" s="42">
+      <c r="H22" s="41">
         <v>1107</v>
       </c>
-      <c r="J24" s="42">
+      <c r="I22" s="41">
         <v>2553</v>
       </c>
-      <c r="K24" s="11">
+      <c r="J22" s="11">
         <f t="shared" si="0"/>
         <v>20498</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="27">
+    <row r="23" spans="1:11" ht="13" customHeight="1">
+      <c r="A23" s="26">
         <v>2013</v>
       </c>
-      <c r="C25" s="25">
+      <c r="B23" s="25">
         <v>19410</v>
       </c>
-      <c r="D25" s="25">
+      <c r="C23" s="25">
         <v>2956</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25">
+      <c r="D23" s="24"/>
+      <c r="E23" s="25">
         <v>81</v>
       </c>
-      <c r="G25" s="25">
+      <c r="F23" s="25">
         <v>53</v>
       </c>
-      <c r="H25" s="25">
+      <c r="G23" s="25">
         <v>757</v>
       </c>
-      <c r="I25" s="25">
+      <c r="H23" s="25">
         <v>1263</v>
       </c>
-      <c r="J25" s="25">
+      <c r="I23" s="25">
         <v>2639</v>
       </c>
-      <c r="K25" s="11">
+      <c r="J23" s="11">
         <v>27159</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="41">
+    <row r="24" spans="1:11" ht="13" customHeight="1">
+      <c r="A24" s="40">
         <v>2014</v>
       </c>
-      <c r="C26" s="42">
+      <c r="B24" s="41">
         <v>25602</v>
       </c>
-      <c r="D26" s="42">
+      <c r="C24" s="41">
         <v>2931</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="42">
+      <c r="D24" s="42"/>
+      <c r="E24" s="41">
         <v>103</v>
       </c>
-      <c r="G26" s="42">
+      <c r="F24" s="41">
         <v>51</v>
       </c>
-      <c r="H26" s="42">
+      <c r="G24" s="41">
         <v>783</v>
       </c>
-      <c r="I26" s="42">
+      <c r="H24" s="41">
         <v>1495</v>
       </c>
-      <c r="J26" s="42">
+      <c r="I24" s="41">
         <v>2840</v>
       </c>
-      <c r="K26" s="45">
+      <c r="J24" s="44">
         <v>33805</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="41">
+    <row r="25" spans="1:11" ht="13" customHeight="1">
+      <c r="A25" s="40">
         <v>2015</v>
       </c>
-      <c r="C27" s="47">
+      <c r="B25" s="46">
         <v>30945</v>
       </c>
-      <c r="D27" s="47">
+      <c r="C25" s="46">
         <v>3594</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="47">
+      <c r="D25" s="42"/>
+      <c r="E25" s="46">
         <v>111</v>
       </c>
-      <c r="G27" s="47">
+      <c r="F25" s="46">
         <v>39</v>
       </c>
-      <c r="H27" s="47">
+      <c r="G25" s="46">
         <v>721</v>
       </c>
-      <c r="I27" s="47">
+      <c r="H25" s="46">
         <v>1563</v>
       </c>
-      <c r="J27" s="47">
+      <c r="I25" s="46">
         <v>2990</v>
       </c>
-      <c r="K27" s="45">
+      <c r="J25" s="44">
         <f t="shared" si="0"/>
         <v>39963</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="27">
+    <row r="26" spans="1:11" ht="13" customHeight="1">
+      <c r="A26" s="26">
         <v>2016</v>
       </c>
-      <c r="C28" s="52">
+      <c r="B26" s="51">
         <v>42029</v>
       </c>
-      <c r="D28" s="52">
+      <c r="C26" s="51">
         <v>3665</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="52">
+      <c r="D26" s="24"/>
+      <c r="E26" s="51">
         <v>140</v>
       </c>
-      <c r="G28" s="52">
+      <c r="F26" s="51">
         <v>54</v>
       </c>
-      <c r="H28" s="52">
+      <c r="G26" s="51">
         <v>697</v>
       </c>
-      <c r="I28" s="52">
+      <c r="H26" s="51">
         <v>1722</v>
       </c>
-      <c r="J28" s="52">
+      <c r="I26" s="51">
         <v>3091</v>
       </c>
-      <c r="K28" s="11">
+      <c r="J26" s="11">
         <f t="shared" si="0"/>
         <v>51398</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="50">
+    <row r="27" spans="1:11" ht="13" customHeight="1">
+      <c r="A27" s="49">
         <v>2017</v>
       </c>
-      <c r="C29" s="51">
+      <c r="B27" s="50">
         <v>50627</v>
       </c>
-      <c r="D29" s="51">
+      <c r="C27" s="50">
         <v>3514</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="51">
+      <c r="D27" s="24"/>
+      <c r="E27" s="50">
         <v>131</v>
       </c>
-      <c r="G29" s="51">
+      <c r="F27" s="50">
         <v>64</v>
       </c>
-      <c r="H29" s="51">
+      <c r="G27" s="50">
         <v>702</v>
       </c>
-      <c r="I29" s="51">
+      <c r="H27" s="50">
         <v>1693</v>
       </c>
-      <c r="J29" s="52">
+      <c r="I27" s="51">
         <v>3322</v>
       </c>
-      <c r="K29" s="45">
+      <c r="J27" s="44">
         <f t="shared" si="0"/>
         <v>60053</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="28">
+    <row r="28" spans="1:11" ht="13" customHeight="1" thickBot="1">
+      <c r="A28" s="27">
         <v>2018</v>
       </c>
-      <c r="C30" s="29">
+      <c r="B28" s="28">
         <v>61067</v>
       </c>
-      <c r="D30" s="29">
+      <c r="C28" s="28">
         <v>3341</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="29">
+      <c r="D28" s="23"/>
+      <c r="E28" s="28">
         <v>137</v>
       </c>
-      <c r="G30" s="29">
+      <c r="F28" s="28">
         <v>60</v>
       </c>
-      <c r="H30" s="29">
+      <c r="G28" s="28">
         <v>681</v>
       </c>
-      <c r="I30" s="29">
+      <c r="H28" s="28">
         <v>1659</v>
       </c>
-      <c r="J30" s="29">
+      <c r="I28" s="28">
         <v>3617</v>
       </c>
-      <c r="K30" s="44">
+      <c r="J28" s="43">
         <f t="shared" si="0"/>
         <v>70562</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="2" t="s">
+    <row r="30" spans="1:11" ht="13" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="59" t="s">
+    <row r="31" spans="1:11" ht="27" customHeight="1">
+      <c r="A31" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-    </row>
-    <row r="34" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="49" t="s">
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+    </row>
+    <row r="32" spans="1:11" ht="13" customHeight="1">
+      <c r="A32" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="2" t="s">
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" ht="13" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="57"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="2:12" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="63" t="s">
+      <c r="F33" s="56"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" ht="54" customHeight="1">
+      <c r="A34" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="64" t="s">
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" ht="30" customHeight="1">
+      <c r="A35" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="63" t="s">
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" ht="13" customHeight="1">
+      <c r="A36" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="58" t="s">
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" ht="13" customHeight="1">
+      <c r="A37" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="65" t="s">
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" ht="13" customHeight="1">
+      <c r="A38" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-    </row>
-    <row r="41" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="59" t="s">
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+    </row>
+    <row r="39" spans="1:11" ht="13" customHeight="1">
+      <c r="A39" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-    </row>
-    <row r="42" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="59" t="s">
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+    </row>
+    <row r="40" spans="1:11" ht="13" customHeight="1">
+      <c r="A40" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-    </row>
-    <row r="43" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="59" t="s">
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+    </row>
+    <row r="41" spans="1:11" ht="13" customHeight="1">
+      <c r="A41" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-    </row>
-    <row r="44" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="59" t="s">
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+    </row>
+    <row r="42" spans="1:11" ht="13" customHeight="1">
+      <c r="A42" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-    </row>
-    <row r="45" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="59" t="s">
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+    </row>
+    <row r="43" spans="1:11" ht="13" customHeight="1">
+      <c r="A43" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-    </row>
-    <row r="46" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="59" t="s">
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+    </row>
+    <row r="44" spans="1:11" ht="13" customHeight="1">
+      <c r="A44" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-    </row>
-    <row r="47" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="59" t="s">
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+    </row>
+    <row r="45" spans="1:11" ht="13" customHeight="1">
+      <c r="A45" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-    </row>
-    <row r="49" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+    </row>
+    <row r="47" spans="1:11" ht="13" customHeight="1">
+      <c r="A47" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="48" t="s">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" ht="13" customHeight="1">
+      <c r="A48" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B38:K38"/>
+  <mergeCells count="13">
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="K4:K24 K27:K30" formulaRange="1"/>
+    <ignoredError sqref="J2:J22 J25:J28" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <extLst>
@@ -4060,7 +3988,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -4070,21 +3998,21 @@
     <col min="6" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:11" ht="14" x14ac:dyDescent="0.2">
-      <c r="B2" s="66" t="s">
+    <row r="1" spans="2:11" ht="14" thickBot="1"/>
+    <row r="2" spans="2:11" ht="14">
+      <c r="B2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -4109,12 +4037,12 @@
       <c r="I3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="2:11" s="1" customFormat="1">
       <c r="B4" s="12">
         <v>1992</v>
       </c>
@@ -4135,7 +4063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" s="1" customFormat="1">
       <c r="B5" s="12">
         <v>1993</v>
       </c>
@@ -4156,7 +4084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" s="1" customFormat="1">
       <c r="B6" s="12">
         <v>1994</v>
       </c>
@@ -4177,7 +4105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" s="1" customFormat="1">
       <c r="B7" s="12">
         <v>1995</v>
       </c>
@@ -4200,7 +4128,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" s="1" customFormat="1">
       <c r="B8" s="12">
         <v>1996</v>
       </c>
@@ -4225,7 +4153,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" s="1" customFormat="1">
       <c r="B9" s="12">
         <v>1997</v>
       </c>
@@ -4250,7 +4178,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11">
       <c r="B10" s="13">
         <v>1998</v>
       </c>
@@ -4275,7 +4203,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11">
       <c r="B11" s="13">
         <v>1999</v>
       </c>
@@ -4300,7 +4228,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11">
       <c r="B12" s="13">
         <v>2000</v>
       </c>
@@ -4327,7 +4255,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:11">
       <c r="B13" s="13">
         <v>2001</v>
       </c>
@@ -4352,7 +4280,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11">
       <c r="B14" s="13">
         <v>2002</v>
       </c>
@@ -4379,7 +4307,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11">
       <c r="B15" s="13">
         <v>2003</v>
       </c>
@@ -4406,7 +4334,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:11">
       <c r="B16" s="13">
         <v>2004</v>
       </c>
@@ -4433,7 +4361,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11">
       <c r="B17" s="13">
         <v>2005</v>
       </c>
@@ -4460,7 +4388,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11">
       <c r="B18" s="13">
         <v>2006</v>
       </c>
@@ -4487,7 +4415,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:11">
       <c r="B19" s="12">
         <v>2007</v>
       </c>
@@ -4514,7 +4442,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11">
       <c r="B20" s="12">
         <v>2008</v>
       </c>
@@ -4541,7 +4469,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11">
       <c r="B21" s="12">
         <v>2009</v>
       </c>
@@ -4568,7 +4496,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:11">
       <c r="B22" s="12">
         <v>2010</v>
       </c>
@@ -4595,225 +4523,225 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11">
       <c r="B23" s="12">
         <v>2011</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="31">
         <v>3394</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="31">
         <v>2597</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32">
+      <c r="E23" s="30"/>
+      <c r="F23" s="31">
         <v>45</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="31">
         <v>56</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="31">
         <v>627</v>
       </c>
-      <c r="I23" s="32">
+      <c r="I23" s="31">
         <v>910</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="32">
         <v>2442</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="37">
+    <row r="24" spans="2:11">
+      <c r="B24" s="36">
         <v>2012</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="37">
         <v>13392</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="37">
         <v>2654</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="38">
+      <c r="E24" s="38"/>
+      <c r="F24" s="37">
         <v>59</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="37">
         <v>58</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <v>675</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="37">
         <v>1107</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="39">
         <v>2553</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="37">
+    <row r="25" spans="2:11">
+      <c r="B25" s="36">
         <v>2013</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="37">
         <v>19410</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="37">
         <v>2956</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="38">
+      <c r="E25" s="38"/>
+      <c r="F25" s="37">
         <v>81</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="37">
         <v>53</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="37">
         <v>757</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="37">
         <v>1263</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="39">
         <v>2639</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="37">
+    <row r="26" spans="2:11">
+      <c r="B26" s="36">
         <v>2014</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="37">
         <v>25602</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="37">
         <v>2931</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="38">
+      <c r="E26" s="38"/>
+      <c r="F26" s="37">
         <v>103</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="37">
         <v>51</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="37">
         <v>783</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="37">
         <v>1495</v>
       </c>
-      <c r="J26" s="40">
+      <c r="J26" s="39">
         <v>2840</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="37">
+    <row r="27" spans="2:11">
+      <c r="B27" s="36">
         <v>2015</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="37">
         <v>30945</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="37">
         <v>3594</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="38">
+      <c r="E27" s="38"/>
+      <c r="F27" s="37">
         <v>111</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="37">
         <v>39</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="37">
         <v>721</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="37">
         <v>1563</v>
       </c>
-      <c r="J27" s="40">
+      <c r="J27" s="39">
         <v>2990</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="37">
+    <row r="28" spans="2:11">
+      <c r="B28" s="36">
         <v>2016</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="37">
         <v>42029</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="37">
         <v>3665</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="38">
+      <c r="E28" s="38"/>
+      <c r="F28" s="37">
         <v>140</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="37">
         <v>54</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="37">
         <v>697</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="37">
         <v>1722</v>
       </c>
-      <c r="J28" s="40">
+      <c r="J28" s="39">
         <v>3091</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="37">
+    <row r="29" spans="2:11">
+      <c r="B29" s="36">
         <v>2017</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="37">
         <v>50627</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="37">
         <v>3514</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="38">
+      <c r="E29" s="38"/>
+      <c r="F29" s="37">
         <v>131</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="37">
         <v>64</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="37">
         <v>702</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="37">
         <v>1693</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J29" s="39">
         <v>3322</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="28">
+    <row r="30" spans="2:11" ht="14" thickBot="1">
+      <c r="B30" s="27">
         <v>2018</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="28">
         <v>61067</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="28">
         <v>3341</v>
       </c>
       <c r="E30" s="23"/>
-      <c r="F30" s="29">
+      <c r="F30" s="28">
         <v>137</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="28">
         <v>60</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="28">
         <v>681</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="28">
         <v>1659</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="35">
         <v>3617</v>
       </c>
-      <c r="K30" s="30"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="I32" s="34"/>
+      <c r="K30" s="29"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="I32" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
